--- a/kalorymetr_Alek.xlsx
+++ b/kalorymetr_Alek.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NAUKA\R\Fizyka 2\fizyka_lab3\fizyka_lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CE67559-F4E9-4078-994A-B88269D1C4B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDC1E3D-4B25-4BDD-88F8-DD523A2D83E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="13050" yWindow="2235" windowWidth="15690" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -33,24 +33,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Pomiar</t>
-  </si>
-  <si>
-    <t>Tres[C]</t>
-  </si>
-  <si>
-    <t>Tdol[C]</t>
-  </si>
-  <si>
-    <t>mdol[kg]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>mk</t>
+  </si>
+  <si>
+    <t>cww</t>
+  </si>
+  <si>
+    <t>m1w</t>
+  </si>
+  <si>
+    <t>t1w</t>
+  </si>
+  <si>
+    <t>m2w</t>
+  </si>
+  <si>
+    <t>t2w</t>
+  </si>
+  <si>
+    <t>tk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -396,110 +405,150 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="B2">
+        <v>4190</v>
+      </c>
+      <c r="C2">
         <v>0.3</v>
-      </c>
-      <c r="C2">
-        <v>20</v>
       </c>
       <c r="D2">
         <v>20</v>
       </c>
+      <c r="E2">
+        <v>0.3</v>
+      </c>
+      <c r="F2">
+        <v>40</v>
+      </c>
+      <c r="G2">
+        <v>27.847899999999999</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="B3">
-        <v>0.3</v>
+        <v>4190</v>
       </c>
       <c r="C3">
-        <v>40</v>
+        <v>0.6</v>
       </c>
       <c r="D3">
         <v>27.847899999999999</v>
       </c>
+      <c r="E3">
+        <v>0.3</v>
+      </c>
+      <c r="F3">
+        <v>40</v>
+      </c>
+      <c r="G3">
+        <v>31.272500000000001</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="B4">
-        <v>0.3</v>
+        <v>4190</v>
       </c>
       <c r="C4">
-        <v>40</v>
+        <v>0.9</v>
       </c>
       <c r="D4">
         <v>31.272500000000001</v>
       </c>
+      <c r="E4">
+        <v>0.3</v>
+      </c>
+      <c r="F4">
+        <v>40</v>
+      </c>
+      <c r="G4">
+        <v>33.191299999999998</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="B5">
-        <v>0.3</v>
+        <v>4190</v>
       </c>
       <c r="C5">
-        <v>40</v>
+        <v>1.2</v>
       </c>
       <c r="D5">
         <v>33.191299999999998</v>
       </c>
+      <c r="E5">
+        <v>0.3</v>
+      </c>
+      <c r="F5">
+        <v>40</v>
+      </c>
+      <c r="G5">
+        <v>34.418399999999998</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="B6">
-        <v>0.3</v>
+        <v>4190</v>
       </c>
       <c r="C6">
-        <v>40</v>
+        <v>1.5</v>
       </c>
       <c r="D6">
         <v>34.418399999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
+      <c r="E6">
         <v>0.3</v>
       </c>
-      <c r="C7">
+      <c r="F6">
         <v>40</v>
       </c>
-      <c r="D7">
+      <c r="G6">
         <v>35.270800000000001</v>
       </c>
     </row>
